--- a/Client/Luban/Config/Datas/Equip.xlsx
+++ b/Client/Luban/Config/Datas/Equip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Demo\SimpleFM\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACB7CD1-EBDC-4707-B2FB-7D524BEA295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429B7DAB-5D1B-4B08-A726-792DD0D4066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="5280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34425" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip1</t>
+    <t>亡者的板甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽梦之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救赎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾射火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺萃之莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破败王者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰顿之兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂徒铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色收割者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪欲九头蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘之甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢登的激荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧末刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡性的觉醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,13 +553,265 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
